--- a/data/trans_dic/P27F_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P27F_2_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +51,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +521,18 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no pudo recibir atención dental por motivos económicos cuando la necesitaba</t>
+          <t>Población que no pudo recibir atención dental por motivos económicos cuando la necesitaba (tasa de respuesta: 99,8%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +541,22 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +568,42 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -542,6 +613,12 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,54%</t>
+          <t>13,55%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>7,86%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2,91%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>9,53%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10,01%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>3,21%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>11,66%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8,86%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>3,06%</t>
         </is>
       </c>
     </row>
@@ -579,17 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,6; 22,88</t>
+          <t>7,59; 23,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,6; 16,49</t>
+          <t>3,38; 15,44</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,57; 17,31</t>
+          <t>0,8; 8,03</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5,05; 16,69</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>5,87; 16,44</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 6,92</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>7,13; 17,68</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5,83; 13,96</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1,39; 5,93</t>
         </is>
       </c>
     </row>
@@ -606,17 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>11,82%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4,34%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>12,42%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>13,97%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5,95%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>11,5%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12,87%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5,09%</t>
         </is>
       </c>
     </row>
@@ -629,17 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,06; 18,1</t>
+          <t>5,62; 17,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,05; 18,41</t>
+          <t>6,11; 20,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>7,75; 16,12</t>
+          <t>1,62; 8,42</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7,84; 18,37</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>9,11; 20,39</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>3,08; 10,61</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>8,06; 16,26</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>9,02; 18,51</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3,03; 8,3</t>
         </is>
       </c>
     </row>
@@ -656,17 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>12,15%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>12,26%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>11,63%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>12,02%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>5,44%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11,9%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>12,14%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>11,62%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>11,89%</t>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4,3%</t>
         </is>
       </c>
     </row>
@@ -679,17 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,14; 18,21</t>
+          <t>7,98; 18,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,03; 16,2</t>
+          <t>7,92; 18,04</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,03; 15,78</t>
+          <t>1,35; 6,54</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>8,05; 16,04</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>7,81; 17,13</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3,17; 9,61</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>9,06; 15,65</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>9,15; 15,99</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2,6; 6,64</t>
         </is>
       </c>
     </row>
@@ -706,17 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,39%</t>
+          <t>18,4%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>12,74%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8,27%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>17,98%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12,64%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8,07%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>18,2%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12,69%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>8,16%</t>
         </is>
       </c>
     </row>
@@ -729,17 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,53; 25,13</t>
+          <t>13,12; 26,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,17; 23,26</t>
+          <t>8,64; 17,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,43; 22,49</t>
+          <t>5,35; 11,81</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>13,46; 23,36</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9,07; 17,63</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5,42; 11,64</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>14,63; 22,9</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>9,77; 16,25</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>6,17; 10,74</t>
         </is>
       </c>
     </row>
@@ -761,12 +1078,42 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>7,46%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7,08%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>13,91%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>13,22%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9,09%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>15,65%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10,38%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>8,1%</t>
         </is>
       </c>
     </row>
@@ -779,17 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>12,23; 23,56</t>
+          <t>12,3; 24,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,73; 18,88</t>
+          <t>4,32; 11,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,3; 19,55</t>
+          <t>4,36; 11,46</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>10,03; 19,16</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>9,43; 19,12</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5,37; 13,79</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>12,43; 19,75</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>7,87; 13,98</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5,7; 11,44</t>
         </is>
       </c>
     </row>
@@ -811,12 +1188,42 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>3,87%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>8,87%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6,48%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>6,4%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>6,56%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>6,54%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>5,3%</t>
         </is>
       </c>
     </row>
@@ -829,17 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,15; 6,93</t>
+          <t>1,14; 7,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,28; 18,98</t>
+          <t>3,54; 11,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>3,72; 12,28</t>
+          <t>1,32; 7,99</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>4,18; 18,41</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3,22; 12,63</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>2,04; 19,64</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>3,69; 12,76</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4,16; 9,91</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>2,69; 11,94</t>
         </is>
       </c>
     </row>
@@ -861,12 +1298,42 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>10,05%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>4,96%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>12,37%</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>12,55%</t>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>11,19%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6,41%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>12,56%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>10,62%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>5,7%</t>
         </is>
       </c>
     </row>
@@ -879,25 +1346,65 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,55; 15,29</t>
+          <t>10,5; 15,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>10,4; 14,68</t>
+          <t>8,02; 12,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,99; 14,22</t>
+          <t>3,76; 6,52</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>10,15; 14,97</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9,36; 13,25</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>4,97; 8,82</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>10,79; 14,11</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>9,24; 12,11</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>4,7; 7,06</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
@@ -906,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no pudo recibir atención dental por motivos económicos cuando la necesitaba (tasa de respuesta: 99,8%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>5701</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>3464</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>13730</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>3565</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3858</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15328</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>9266</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>7322</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>29058</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>3194; 9712</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1491; 6803</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3788; 37854</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1888; 6242</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2262; 6337</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5229; 33016</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5663; 14049</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>4813; 11531</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>13207; 56206</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5301</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5686</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>25067</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5864</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6386</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>30066</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>11164</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>12072</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>55133</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>2803; 8901</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2938; 9768</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>9324; 48592</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3699; 8670</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4164; 9315</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>15577; 53589</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>7829; 15790</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>8463; 17364</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>32777; 89847</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>7313</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>7447</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>20994</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>6241</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>6594</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>38915</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>13554</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>14041</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>59909</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4803; 10890</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4814; 10966</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9154; 44421</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4324; 8610</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4287; 9395</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>22693; 68797</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>10321; 17829</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>10580; 18489</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>36313; 92606</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>10721</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>7177</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>53910</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>9388</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6712</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>53190</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>20109</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>13889</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>107100</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>7647; 15259</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4868; 10137</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>34871; 77052</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>7027; 12195</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4818; 9362</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>35722; 76755</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>16161; 25298</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>10696; 17787</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>80895; 140929</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>7775</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>3365</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>35051</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>6782</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>6131</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>46745</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>14558</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>9496</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>81796</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>5438; 10698</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1948; 5372</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>21570; 56710</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4891; 9346</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4372; 8870</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>27617; 70939</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>11560; 18369</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>7202; 12791</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>57488; 115428</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1582</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3031</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>21812</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>5650</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>4092</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>46588</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>7231</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>7123</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>68400</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>532; 3261</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>1623; 5357</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>7453; 44967</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2666; 11732</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2032; 7969</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>14818; 142956</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>4069; 14077</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>4529; 10796</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>34751; 154179</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>78.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>257.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>38392</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>30171</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>170564</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>37490</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>33772</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>230832</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>75882</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>63943</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>401396</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>31643; 46345</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>24081; 36917</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>129288; 224139</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>30763; 45351</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>28244; 39980</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>178870; 317323</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>65201; 85283</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>55638; 72885</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>331034; 496867</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>